--- a/ComputerScience/graphics/pbrt4ed/pbrt-v4/class-hierarchy.xlsx
+++ b/ComputerScience/graphics/pbrt4ed/pbrt-v4/class-hierarchy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\books\new\graphics\pbrt4ed\pbrt-v4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\books\ComputerScience\graphics\pbrt4ed\pbrt-v4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38435FF4-25F7-466C-9707-5820A32F2B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3866908A-83A1-437E-AD69-B9A67BD1B953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7212" yWindow="2856" windowWidth="23040" windowHeight="13560" xr2:uid="{82C90499-432E-4C63-BF9E-EE7C7C033765}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="121">
   <si>
     <t>接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,10 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>过滤器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>材质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -505,6 +501,22 @@
   </si>
   <si>
     <t>MeasuredMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滤波器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示光与物体或介质与介质之间的相互作用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +615,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -662,6 +674,36 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -670,35 +712,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1014,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA417CA0-79F1-4D57-8BF0-F6D926E3E9BA}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1038,27 +1053,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1112,234 +1127,234 @@
         <v>9</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>49</v>
-      </c>
       <c r="E7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>89</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H7" s="6"/>
       <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="30"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="29"/>
+      <c r="G9" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="29"/>
+      <c r="G10" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="3" t="s">
+      <c r="F11" s="29"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="3" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="22" t="s">
+      <c r="D13" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="29"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="29"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
@@ -1353,7 +1368,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
@@ -1361,13 +1376,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1375,140 +1390,140 @@
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>54</v>
+      <c r="D20" s="31" t="s">
+        <v>53</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
@@ -1518,13 +1533,13 @@
         <v>21</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
@@ -1532,13 +1547,13 @@
         <v>23</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
@@ -1546,13 +1561,13 @@
         <v>24</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
@@ -1560,13 +1575,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
@@ -1574,13 +1589,13 @@
         <v>28</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
@@ -1588,97 +1603,99 @@
         <v>30</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D36" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="29" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="C37" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="28" t="s">
+      <c r="G37" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="J37" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="H37" s="2" t="s">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="30"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I37" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="J37" s="3" t="s">
+      <c r="I38" s="24"/>
+      <c r="J38" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="2" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="30"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I38" s="23"/>
-      <c r="J38" s="3" t="s">
+      <c r="I39" s="25"/>
+      <c r="J39" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I39" s="24"/>
-      <c r="J39" s="3" t="s">
-        <v>87</v>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="D7:D12"/>
-    <mergeCell ref="F7:F12"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="A20:A30"/>
+    <mergeCell ref="B20:B30"/>
+    <mergeCell ref="C20:C30"/>
+    <mergeCell ref="D20:D30"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A13:A16"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
@@ -1692,13 +1709,22 @@
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="J4:J6"/>
-    <mergeCell ref="A20:A30"/>
-    <mergeCell ref="B20:B30"/>
-    <mergeCell ref="C20:C30"/>
-    <mergeCell ref="D20:D30"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="F7:F12"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
